--- a/Table 1.xlsx
+++ b/Table 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BARRY-8 1/West Australia projects/Sara Morón's ECR Project/PAPER/Tables/Final versions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BARRY-8/West Australia projects/Sara Morón's ECR Project/PAPER/REVISED MANUSCRIPT/Revised files/FINAL FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B61CCF2-B567-3A48-9F43-DB7F02DD70D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC3A0BC-755A-DA4A-9803-CB00CF2C736A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="460" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15760" yWindow="460" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <r>
       <t xml:space="preserve">Table 1. </t>
@@ -143,9 +143,6 @@
     <t>Granodiorite</t>
   </si>
   <si>
-    <t>western Pilbara</t>
-  </si>
-  <si>
     <t>Weber, 2002</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
   </si>
   <si>
     <t>northwestern Gascoyne Complex</t>
-  </si>
-  <si>
-    <t>South Pinderi Hills dyke</t>
   </si>
   <si>
     <t>eastern Hamersley basin</t>
@@ -251,6 +245,15 @@
   </si>
   <si>
     <t>Gascoyne Complex (Proterozoic)</t>
+  </si>
+  <si>
+    <t>northern Pilbara</t>
+  </si>
+  <si>
+    <t>west-central Pilbara</t>
+  </si>
+  <si>
+    <t>south Pinderi Hills dyke</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -895,7 +898,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1100,7 +1103,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1157,18 +1160,18 @@
         <v>6</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="60"/>
       <c r="I5" s="60"/>
       <c r="J5" s="61"/>
       <c r="K5" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="64"/>
       <c r="M5" s="65"/>
       <c r="N5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1179,13 +1182,13 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>8</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>10</v>
@@ -1249,7 +1252,7 @@
         <v>-20.714324000000001</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="48" t="s">
         <v>11</v>
@@ -1285,7 +1288,7 @@
         <v>-21.750599999999999</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>16</v>
@@ -1304,7 +1307,7 @@
       <c r="L10" s="23"/>
       <c r="M10" s="18"/>
       <c r="N10" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1321,10 +1324,10 @@
         <v>-21.533333333333335</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>12</v>
@@ -1346,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1363,7 +1366,7 @@
         <v>-21.986899999999999</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>21</v>
@@ -1384,7 +1387,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="11"/>
       <c r="N12" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1401,7 +1404,7 @@
         <v>-21.288900000000002</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>23</v>
@@ -1426,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1480,7 +1483,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -1546,7 +1549,7 @@
         <v>80</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
@@ -1560,12 +1563,12 @@
         <v>12</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>33</v>
@@ -1580,7 +1583,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="20"/>
@@ -1594,12 +1597,12 @@
         <v>12</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>10</v>
@@ -1614,7 +1617,7 @@
         <v>90</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
@@ -1628,12 +1631,12 @@
         <v>12</v>
       </c>
       <c r="N19" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="45" t="s">
         <v>10</v>
@@ -1648,7 +1651,7 @@
         <v>340</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -1660,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1681,7 +1684,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="52"/>
@@ -1715,10 +1718,10 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>41</v>
       </c>
       <c r="C24" s="53">
         <v>115.47666666666667</v>
@@ -1730,7 +1733,7 @@
         <v>110</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="20" t="s">
@@ -1746,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="N24" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1767,7 +1770,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="45"/>
       <c r="C26" s="51"/>
@@ -1801,7 +1804,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="45" t="s">
         <v>33</v>
@@ -1816,7 +1819,7 @@
         <v>380</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
@@ -1830,15 +1833,15 @@
         <v>12</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="45" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>44</v>
       </c>
       <c r="C29" s="53">
         <v>119.08055555555555</v>
@@ -1850,7 +1853,7 @@
         <v>640</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
@@ -1864,7 +1867,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17" thickBot="1">
@@ -1899,7 +1902,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
